--- a/Капцов Сергей Анатольевич.xlsx
+++ b/Капцов Сергей Анатольевич.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Student:</t>
   </si>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>BDF</t>
+  </si>
+  <si>
+    <t>bcf</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>DEFG</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>notD</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>cdg</t>
   </si>
 </sst>
 </file>
@@ -489,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +580,9 @@
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
@@ -571,7 +594,9 @@
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
@@ -583,7 +608,9 @@
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
@@ -595,7 +622,9 @@
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -607,7 +636,9 @@
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -619,7 +650,9 @@
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
@@ -631,7 +664,9 @@
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -649,7 +684,9 @@
       <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -658,7 +695,9 @@
       <c r="C15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -667,7 +706,9 @@
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
